--- a/Sizing/motorData/motorData.xlsx
+++ b/Sizing/motorData/motorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://omnigear.sharepoint.com/sites/Engineering/Shared Documents/Electrification/Simulation/Sizing/motorData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\motorData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{B933B1E4-E10F-49E8-BF80-90AABE8C7360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D7FF11-6B59-4D40-8B64-A71EB1C7AF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="1170" windowWidth="22230" windowHeight="13800" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="30075" windowHeight="16800" tabRatio="800" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="89">
   <si>
     <t>Motor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,9 @@
   <si>
     <t>voltage</t>
   </si>
+  <si>
+    <t>tf</t>
+  </si>
 </sst>
 </file>
 
@@ -453,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -513,6 +516,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,7 +537,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,8 +658,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -658,13 +676,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4050,10 +4065,10 @@
       </c>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="35" t="s">
         <v>53</v>
       </c>
@@ -4089,10 +4104,10 @@
       </c>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="35" t="s">
         <v>53</v>
       </c>
@@ -4128,10 +4143,10 @@
       </c>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="35" t="s">
         <v>54</v>
       </c>
@@ -4149,10 +4164,10 @@
       </c>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="35" t="s">
         <v>55</v>
       </c>
@@ -4164,10 +4179,10 @@
       </c>
     </row>
     <row r="7" spans="1:33">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="36" t="s">
         <v>56</v>
       </c>
@@ -4179,10 +4194,10 @@
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="36" t="s">
         <v>56</v>
       </c>
@@ -4194,10 +4209,10 @@
       </c>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="36" t="s">
         <v>56</v>
       </c>
@@ -4209,10 +4224,10 @@
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="36" t="s">
         <v>56</v>
       </c>
@@ -4224,10 +4239,10 @@
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="36" t="s">
         <v>56</v>
       </c>
@@ -4236,12 +4251,12 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="22.5" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="39">
         <v>1</v>
       </c>
@@ -4253,12 +4268,12 @@
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="32">
         <v>650</v>
       </c>
@@ -4270,12 +4285,12 @@
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="32">
         <v>600</v>
       </c>
@@ -4287,12 +4302,12 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="32">
         <v>500</v>
       </c>
@@ -4307,12 +4322,12 @@
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="32" t="s">
         <v>64</v>
       </c>
@@ -4324,12 +4339,12 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="32">
         <v>5</v>
       </c>
@@ -4341,12 +4356,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="32">
         <v>600</v>
       </c>
@@ -4358,12 +4373,12 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="32">
         <v>2</v>
       </c>
@@ -4375,12 +4390,12 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="32">
         <v>2.86</v>
       </c>
@@ -4392,12 +4407,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="32">
         <v>5.56</v>
       </c>
@@ -4409,12 +4424,12 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="37">
         <f ca="1">INDIRECT(CONCATENATE("'",Home!$E$18,"'!R30C",INDEX(Home!$AC$1:$AG$4,MATCH(Home!$E$20,Home!$AC$2:$AC$4,)+1,MATCH(Home!$E$19,Home!$AD$1:$AG$1,)+1)),FALSE)</f>
         <v>443.09520000000003</v>
@@ -4449,11 +4464,11 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="33">
         <v>110</v>
       </c>
@@ -4462,11 +4477,11 @@
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="33">
         <v>20</v>
       </c>
@@ -4532,11 +4547,11 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="33">
         <v>10</v>
       </c>
@@ -4545,11 +4560,11 @@
       <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="33">
         <v>30</v>
       </c>
@@ -4559,6 +4574,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -4568,21 +4591,13 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E28">
@@ -4650,15 +4665,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -4709,7 +4724,7 @@
         <v>M24SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -4750,7 +4765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -4832,7 +4847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -4872,8 +4887,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13">
         <v>450</v>
       </c>
@@ -4913,8 +4931,11 @@
       <c r="M6" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>900</v>
       </c>
@@ -4954,8 +4975,11 @@
       <c r="M7" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>1350</v>
       </c>
@@ -4995,8 +5019,11 @@
       <c r="M8" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13">
         <v>1800</v>
       </c>
@@ -5036,8 +5063,11 @@
       <c r="M9" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="13">
         <v>2250</v>
       </c>
@@ -5077,8 +5107,11 @@
       <c r="M10" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>2700</v>
       </c>
@@ -5118,8 +5151,11 @@
       <c r="M11" s="13">
         <v>396.86645279953206</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13">
         <v>3150</v>
       </c>
@@ -5159,8 +5195,11 @@
       <c r="M12" s="13">
         <v>353.14493599999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13">
         <v>3600</v>
       </c>
@@ -5200,8 +5239,11 @@
       <c r="M13" s="13">
         <v>308.942046</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13">
         <v>4050</v>
       </c>
@@ -5241,8 +5283,11 @@
       <c r="M14" s="13">
         <v>274.50490200000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13">
         <v>4500</v>
       </c>
@@ -5282,8 +5327,11 @@
       <c r="M15" s="13">
         <v>246.92272399999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13">
         <v>4950</v>
       </c>
@@ -5323,8 +5371,11 @@
       <c r="M16" s="13">
         <v>224.33588800000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>5400</v>
       </c>
@@ -5364,8 +5415,11 @@
       <c r="M17" s="13">
         <v>205.50112799999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.44021739130434784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>5850</v>
       </c>
@@ -5405,8 +5459,11 @@
       <c r="M18" s="13">
         <v>189.555826</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.46765184042686236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>6300</v>
       </c>
@@ -5446,8 +5503,11 @@
       <c r="M19" s="13">
         <v>175.88280599999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.46765184042686225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>6750</v>
       </c>
@@ -5487,8 +5547,11 @@
       <c r="M20" s="13">
         <v>164.02892199999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.46765184042686231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>7200</v>
       </c>
@@ -5528,8 +5591,11 @@
       <c r="M21" s="13">
         <v>153.65393599999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.46765184042686231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>7650</v>
       </c>
@@ -5569,8 +5635,11 @@
       <c r="M22" s="13">
         <v>144.49744799999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.46765184042686236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>8100</v>
       </c>
@@ -5610,8 +5679,11 @@
       <c r="M23" s="13">
         <v>136.35677799999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.46765184042686225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>8550</v>
       </c>
@@ -5651,8 +5723,11 @@
       <c r="M24" s="13">
         <v>129.07182599999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.46765184042686231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>9000</v>
       </c>
@@ -5692,8 +5767,11 @@
       <c r="M25" s="13">
         <v>122.514442</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O25">
+        <v>0.46765184042686198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -5741,15 +5819,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -5800,7 +5878,7 @@
         <v>M27SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -5841,7 +5919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -5882,7 +5960,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -5923,7 +6001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -5963,8 +6041,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13">
         <v>367.5</v>
       </c>
@@ -6004,8 +6085,11 @@
       <c r="M6" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>735</v>
       </c>
@@ -6045,8 +6129,11 @@
       <c r="M7" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>1102.5</v>
       </c>
@@ -6086,8 +6173,11 @@
       <c r="M8" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13">
         <v>1470</v>
       </c>
@@ -6127,8 +6217,11 @@
       <c r="M9" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="13">
         <v>1837.5</v>
       </c>
@@ -6168,8 +6261,11 @@
       <c r="M10" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>2205</v>
       </c>
@@ -6209,8 +6305,11 @@
       <c r="M11" s="13">
         <v>598.20471964672947</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13">
         <v>2572.5</v>
       </c>
@@ -6250,8 +6349,11 @@
       <c r="M12" s="13">
         <v>525.26875800000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13">
         <v>2940</v>
       </c>
@@ -6291,8 +6393,11 @@
       <c r="M13" s="13">
         <v>459.33266400000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.37068965517241381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13">
         <v>3307.5</v>
       </c>
@@ -6332,8 +6437,11 @@
       <c r="M14" s="13">
         <v>407.99241999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.37068965517241398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13">
         <v>3675</v>
       </c>
@@ -6373,8 +6481,11 @@
       <c r="M15" s="13">
         <v>366.90772600000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.37068965517241398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13">
         <v>4042.5</v>
       </c>
@@ -6414,8 +6525,11 @@
       <c r="M16" s="13">
         <v>333.298404</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.44038757083853619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>4410</v>
       </c>
@@ -6455,8 +6569,11 @@
       <c r="M17" s="13">
         <v>305.27550000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.44038757083853619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>4777.5</v>
       </c>
@@ -6496,8 +6613,11 @@
       <c r="M18" s="13">
         <v>281.554124</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.44038757083853619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>5145</v>
       </c>
@@ -6537,8 +6657,11 @@
       <c r="M19" s="13">
         <v>261.21510000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.44038757083853608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>5512.5</v>
       </c>
@@ -6578,8 +6701,11 @@
       <c r="M20" s="13">
         <v>243.58357799999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.44038757083853614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>5880</v>
       </c>
@@ -6619,8 +6745,11 @@
       <c r="M21" s="13">
         <v>228.152942</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.44038757083853619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>6247.5</v>
       </c>
@@ -6660,8 +6789,11 @@
       <c r="M22" s="13">
         <v>214.53549599999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.44038757083853602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>6615</v>
       </c>
@@ -6701,8 +6833,11 @@
       <c r="M23" s="13">
         <v>202.42951400000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.44038757083853602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>6982.5</v>
       </c>
@@ -6742,8 +6877,11 @@
       <c r="M24" s="13">
         <v>191.59667400000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.44038757083853602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>7350</v>
       </c>
@@ -6783,8 +6921,11 @@
       <c r="M25" s="13">
         <v>181.846238</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
+      <c r="O25">
+        <v>0.44038757083853602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="30" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>69</v>
       </c>
@@ -6832,15 +6973,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -6891,7 +7032,7 @@
         <v>M30SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -6932,7 +7073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -6973,7 +7114,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -7014,7 +7155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -7054,8 +7195,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13">
         <v>300</v>
       </c>
@@ -7095,8 +7239,11 @@
       <c r="M6" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>600</v>
       </c>
@@ -7136,8 +7283,11 @@
       <c r="M7" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>900</v>
       </c>
@@ -7177,8 +7327,11 @@
       <c r="M8" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13">
         <v>1200</v>
       </c>
@@ -7218,8 +7371,11 @@
       <c r="M9" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="13">
         <v>1500</v>
       </c>
@@ -7259,8 +7415,11 @@
       <c r="M10" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.39946140035906602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>1800</v>
       </c>
@@ -7300,8 +7459,11 @@
       <c r="M11" s="13">
         <v>720.81556585374267</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13">
         <v>2100</v>
       </c>
@@ -7341,8 +7503,11 @@
       <c r="M12" s="13">
         <v>676.10378200000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13">
         <v>2400</v>
       </c>
@@ -7382,8 +7547,11 @@
       <c r="M13" s="13">
         <v>591.33311200000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.44504097040003687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13">
         <v>2700</v>
       </c>
@@ -7423,8 +7591,11 @@
       <c r="M14" s="13">
         <v>525.29024000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13">
         <v>3000</v>
       </c>
@@ -7464,8 +7635,11 @@
       <c r="M15" s="13">
         <v>472.39749399999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13">
         <v>3300</v>
       </c>
@@ -7505,8 +7679,11 @@
       <c r="M16" s="13">
         <v>429.088752</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.44504097040003676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>3600</v>
       </c>
@@ -7546,8 +7723,11 @@
       <c r="M17" s="13">
         <v>393.00259199999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>3900</v>
       </c>
@@ -7587,8 +7767,11 @@
       <c r="M18" s="13">
         <v>362.46874000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>4200</v>
       </c>
@@ -7628,8 +7811,11 @@
       <c r="M19" s="13">
         <v>336.28489000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>4500</v>
       </c>
@@ -7669,8 +7855,11 @@
       <c r="M20" s="13">
         <v>313.58403800000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>4800</v>
       </c>
@@ -7710,8 +7899,11 @@
       <c r="M21" s="13">
         <v>293.715058</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>5100</v>
       </c>
@@ -7751,8 +7943,11 @@
       <c r="M22" s="13">
         <v>276.17950000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>5400</v>
       </c>
@@ -7792,8 +7987,11 @@
       <c r="M23" s="13">
         <v>260.58933999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>5700</v>
       </c>
@@ -7833,8 +8031,11 @@
       <c r="M24" s="13">
         <v>246.638026</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>6000</v>
       </c>
@@ -7874,8 +8075,11 @@
       <c r="M25" s="13">
         <v>234.08017000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O25">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -7923,15 +8127,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -7982,7 +8186,7 @@
         <v>M34SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -8023,7 +8227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -8064,7 +8268,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -8105,7 +8309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -8145,8 +8349,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13">
         <v>232.5</v>
       </c>
@@ -8186,8 +8393,11 @@
       <c r="M6" s="13">
         <v>1148.0134241646326</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>465</v>
       </c>
@@ -8227,8 +8437,11 @@
       <c r="M7" s="13">
         <v>1148.0134241646326</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>697.5</v>
       </c>
@@ -8268,8 +8481,11 @@
       <c r="M8" s="13">
         <v>1148.0134241646326</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13">
         <v>930</v>
       </c>
@@ -8309,8 +8525,11 @@
       <c r="M9" s="13">
         <v>1148.0134241646326</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.39946140035906641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="13">
         <v>1162.5</v>
       </c>
@@ -8350,8 +8569,11 @@
       <c r="M10" s="13">
         <v>1148.0134241646326</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.39946140035906602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>1395</v>
       </c>
@@ -8391,8 +8613,11 @@
       <c r="M11" s="13">
         <v>1008.374922</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13">
         <v>1627.5</v>
       </c>
@@ -8432,8 +8657,11 @@
       <c r="M12" s="13">
         <v>863.98692000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13">
         <v>1860</v>
       </c>
@@ -8473,8 +8701,11 @@
       <c r="M13" s="13">
         <v>755.50069199999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.44504097040003687</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13">
         <v>2092.5</v>
       </c>
@@ -8514,8 +8745,11 @@
       <c r="M14" s="13">
         <v>670.98507600000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13">
         <v>2325</v>
       </c>
@@ -8555,8 +8789,11 @@
       <c r="M15" s="13">
         <v>603.29977199999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.44504097040003682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13">
         <v>2557.5</v>
       </c>
@@ -8596,8 +8833,11 @@
       <c r="M16" s="13">
         <v>547.88003200000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.44504097040003676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>2790</v>
       </c>
@@ -8637,8 +8877,11 @@
       <c r="M17" s="13">
         <v>501.70857599999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>3022.5</v>
       </c>
@@ -8678,8 +8921,11 @@
       <c r="M18" s="13">
         <v>462.63689199999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>3255</v>
       </c>
@@ -8719,8 +8965,11 @@
       <c r="M19" s="13">
         <v>429.131888</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>3487.5</v>
       </c>
@@ -8760,8 +9009,11 @@
       <c r="M20" s="13">
         <v>400.08398</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>3720</v>
       </c>
@@ -8801,8 +9053,11 @@
       <c r="M21" s="13">
         <v>374.65989200000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>3952.5</v>
       </c>
@@ -8842,8 +9097,11 @@
       <c r="M22" s="13">
         <v>352.22174200000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>4185</v>
       </c>
@@ -8883,8 +9141,11 @@
       <c r="M23" s="13">
         <v>332.27297800000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>4417.5</v>
       </c>
@@ -8924,8 +9185,11 @@
       <c r="M24" s="13">
         <v>314.42131000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>4650</v>
       </c>
@@ -8965,8 +9229,11 @@
       <c r="M25" s="13">
         <v>298.35271999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O25">
+        <v>0.44504097040003698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -10563,11 +10830,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="G1" s="5"/>
@@ -12617,11 +12884,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="G1" s="5"/>
@@ -14305,11 +14572,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="2"/>
@@ -22245,15 +22512,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:24" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -22304,7 +22571,7 @@
         <v>M19SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:24" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -22345,7 +22612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:24" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -22386,7 +22653,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:24" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -22427,7 +22694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:24" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -22467,8 +22734,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="13">
         <v>750</v>
       </c>
@@ -22508,8 +22778,11 @@
       <c r="M6" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="13">
         <v>1500</v>
       </c>
@@ -22549,8 +22822,11 @@
       <c r="M7" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="13">
         <v>2250</v>
       </c>
@@ -22590,8 +22866,11 @@
       <c r="M8" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="13">
         <v>3000</v>
       </c>
@@ -22631,8 +22910,11 @@
       <c r="M9" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="13">
         <v>3750</v>
       </c>
@@ -22672,8 +22954,11 @@
       <c r="M10" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="13">
         <v>4500</v>
       </c>
@@ -22713,8 +22998,12 @@
       <c r="M11" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="X11" s="22"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="13">
         <v>5250</v>
       </c>
@@ -22754,8 +23043,12 @@
       <c r="M12" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="13">
         <v>6000</v>
       </c>
@@ -22795,8 +23088,12 @@
       <c r="M13" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="13">
         <v>6750</v>
       </c>
@@ -22836,8 +23133,11 @@
       <c r="M14" s="13">
         <v>125.47466091488806</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="13">
         <v>7500</v>
       </c>
@@ -22877,8 +23177,11 @@
       <c r="M15" s="13">
         <v>124.345624</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.34615384615384615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="13">
         <v>8250</v>
       </c>
@@ -22918,8 +23221,11 @@
       <c r="M16" s="13">
         <v>112.991328</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.34615384615384598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>9000</v>
       </c>
@@ -22959,8 +23265,11 @@
       <c r="M17" s="13">
         <v>103.524412</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.34615384615384598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>9750</v>
       </c>
@@ -23000,8 +23309,11 @@
       <c r="M18" s="13">
         <v>95.510739999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.37995475113122201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>10500</v>
       </c>
@@ -23041,8 +23353,11 @@
       <c r="M19" s="13">
         <v>88.639756000000006</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.37995475113122174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>11250</v>
       </c>
@@ -23082,8 +23397,11 @@
       <c r="M20" s="13">
         <v>82.683458000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.37995475113122174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>12000</v>
       </c>
@@ -23123,8 +23441,11 @@
       <c r="M21" s="13">
         <v>77.470684000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.37995475113122179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>12750</v>
       </c>
@@ -23164,8 +23485,11 @@
       <c r="M22" s="13">
         <v>72.870456000000004</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.37995475113122201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>13500</v>
       </c>
@@ -23205,8 +23529,11 @@
       <c r="M23" s="13">
         <v>68.780839999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.37995475113122201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>14250</v>
       </c>
@@ -23246,8 +23573,11 @@
       <c r="M24" s="13">
         <v>65.121319999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.37995475113122201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>15000</v>
       </c>
@@ -23287,8 +23617,11 @@
       <c r="M25" s="13">
         <v>61.827460000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O25">
+        <v>0.37995475113122201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -23336,15 +23669,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="51">
+    <row r="1" spans="1:15" ht="51">
       <c r="A1" s="19"/>
       <c r="B1" s="20" t="str">
         <f>CONCATENATE(B2," ",B3,"VDC ",B4," Turns"," (Torque)")</f>
@@ -23395,7 +23728,7 @@
         <v>M21SP 600VDC 6 Turns (Torque)</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="21" t="s">
         <v>45</v>
       </c>
@@ -23436,7 +23769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45">
+    <row r="3" spans="1:15" ht="45">
       <c r="A3" s="21" t="s">
         <v>46</v>
       </c>
@@ -23477,7 +23810,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="21" t="s">
         <v>36</v>
       </c>
@@ -23518,7 +23851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="45">
+    <row r="5" spans="1:15" ht="45">
       <c r="A5" s="21" t="s">
         <v>47</v>
       </c>
@@ -23558,8 +23891,11 @@
       <c r="M5" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="13">
         <v>600</v>
       </c>
@@ -23599,8 +23935,11 @@
       <c r="M6" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="13">
         <v>1200</v>
       </c>
@@ -23640,8 +23979,11 @@
       <c r="M7" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="13">
         <v>1800</v>
       </c>
@@ -23681,8 +24023,11 @@
       <c r="M8" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="13">
         <v>2400</v>
       </c>
@@ -23722,8 +24067,11 @@
       <c r="M9" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="13">
         <v>3000</v>
       </c>
@@ -23763,8 +24111,11 @@
       <c r="M10" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="13">
         <v>3600</v>
       </c>
@@ -23804,8 +24155,11 @@
       <c r="M11" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="13">
         <v>4200</v>
       </c>
@@ -23845,8 +24199,11 @@
       <c r="M12" s="13">
         <v>188.3008557442655</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="13">
         <v>4800</v>
       </c>
@@ -23886,8 +24243,11 @@
       <c r="M13" s="13">
         <v>183.90077600000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="13">
         <v>5400</v>
       </c>
@@ -23927,8 +24287,11 @@
       <c r="M14" s="13">
         <v>163.36684600000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14">
+        <v>0.41262135922330095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="13">
         <v>6000</v>
       </c>
@@ -23968,8 +24331,11 @@
       <c r="M15" s="13">
         <v>146.94309200000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15">
+        <v>0.45013239187996468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="13">
         <v>6600</v>
       </c>
@@ -24009,8 +24375,11 @@
       <c r="M16" s="13">
         <v>133.50100399999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0.45013239187996468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="13">
         <v>7200</v>
       </c>
@@ -24050,8 +24419,11 @@
       <c r="M17" s="13">
         <v>122.29371999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17">
+        <v>0.4876434245366284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="13">
         <v>7800</v>
       </c>
@@ -24091,8 +24463,11 @@
       <c r="M18" s="13">
         <v>112.80708199999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18">
+        <v>0.50564872021182694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="13">
         <v>8400</v>
       </c>
@@ -24132,8 +24507,11 @@
       <c r="M19" s="13">
         <v>104.673334</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="O19">
+        <v>0.50564872021182694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="13">
         <v>9000</v>
       </c>
@@ -24173,8 +24551,11 @@
       <c r="M20" s="13">
         <v>97.622488000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="O20">
+        <v>0.50564872021182694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="13">
         <v>9600</v>
       </c>
@@ -24214,8 +24595,11 @@
       <c r="M21" s="13">
         <v>91.451887999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0.50564872021182705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="13">
         <v>10200</v>
       </c>
@@ -24255,8 +24639,11 @@
       <c r="M22" s="13">
         <v>86.006448000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="O22">
+        <v>0.50564872021182694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="13">
         <v>10800</v>
       </c>
@@ -24296,8 +24683,11 @@
       <c r="M23" s="13">
         <v>81.165481999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O23">
+        <v>0.50564872021182705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="13">
         <v>11400</v>
       </c>
@@ -24337,8 +24727,11 @@
       <c r="M24" s="13">
         <v>76.833669999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0.50564872021182705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="13">
         <v>12000</v>
       </c>
@@ -24378,8 +24771,11 @@
       <c r="M25" s="13">
         <v>72.934721999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="O25">
+        <v>0.50564872021182705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -24426,6 +24822,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a077bfdb5c83a9e90026d9660a1fda64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab75e0c3651772810f3079df645c8c4c" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -24630,22 +25041,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B302CA-2A32-4C0C-88B4-3C4E2975CF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A78C7F-AFE2-46DF-A32E-9F7304FDE51E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24662,21 +25075,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B302CA-2A32-4C0C-88B4-3C4E2975CF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Sizing/motorData/motorData.xlsx
+++ b/Sizing/motorData/motorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\motorData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305205D-B89D-4A59-9C5E-0900187392A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8CAF0E-C6D6-4A39-BE49-626F4E1E6E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1215" windowWidth="19560" windowHeight="17520" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brocheure" sheetId="25" r:id="rId1"/>
@@ -362,14 +362,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -713,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E489C59-36A1-477C-846B-9F91113B8F10}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -725,7 +725,7 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -742,7 +742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -762,7 +762,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -782,7 +782,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -801,8 +801,12 @@
       <c r="F4">
         <v>455</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <f>E4*5</f>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -822,7 +826,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -842,7 +846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -862,7 +866,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -882,27 +886,27 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>116</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>150</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>201</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>218</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -922,7 +926,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -942,31 +946,31 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>95</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -986,7 +990,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1030,37 +1034,37 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
@@ -1083,23 +1087,23 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <f>B3*360/1000</f>
         <v>117.36</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f>C3*360/1000</f>
         <v>157.32</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f>D3*360/1000</f>
         <v>199.44</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <f>E3*360/1000</f>
         <v>230.76</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f>F3*360/1000</f>
         <v>183.96</v>
       </c>
@@ -1108,23 +1112,23 @@
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <f>B3*600/1000</f>
         <v>195.6</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f>C3*600/1000</f>
         <v>262.2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f>D3*600/1000</f>
         <v>332.4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <f>E3*600/1000</f>
         <v>384.6</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <f>F3*600/1000</f>
         <v>306.60000000000002</v>
       </c>
@@ -1133,124 +1137,124 @@
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <f>B11*B5*2*3.14/60/1000*0.95</f>
         <v>195.38649999999998</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <f t="shared" ref="C26:F26" si="0">C11*C5*2*3.14/60/1000*0.95</f>
         <v>245.79919999999998</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>329.32319999999999</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <f t="shared" si="0"/>
         <v>423.8843</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>515.07461000000001</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13711,8 +13715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16016,15 +16020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a077bfdb5c83a9e90026d9660a1fda64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab75e0c3651772810f3079df645c8c4c" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -16229,6 +16224,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -16236,14 +16240,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A78C7F-AFE2-46DF-A32E-9F7304FDE51E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16262,6 +16258,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B302CA-2A32-4C0C-88B4-3C4E2975CF79}">
   <ds:schemaRefs>

--- a/Sizing/motorData/motorData.xlsx
+++ b/Sizing/motorData/motorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ElectricMotors\Sizing\motorData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8CAF0E-C6D6-4A39-BE49-626F4E1E6E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E212BE-953C-45BA-A5F8-4CA712DF6176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="28800" windowHeight="15435" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Brocheure" sheetId="25" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E489C59-36A1-477C-846B-9F91113B8F10}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13715,7 +13715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
@@ -16020,6 +16020,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAE60540A1AE0C40A57867F6D1668AAB" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a077bfdb5c83a9e90026d9660a1fda64">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0b06742-ce3d-43d6-80c6-a38c29477f3b" xmlns:ns3="ac8b36ea-85bd-4ee9-9a25-ec081feb3b1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ab75e0c3651772810f3079df645c8c4c" ns2:_="" ns3:_="">
     <xsd:import namespace="f0b06742-ce3d-43d6-80c6-a38c29477f3b"/>
@@ -16224,22 +16239,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B302CA-2A32-4C0C-88B4-3C4E2975CF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A78C7F-AFE2-46DF-A32E-9F7304FDE51E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16256,21 +16273,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C02CEFC-A583-411E-ADB9-AA231F4E5AC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B302CA-2A32-4C0C-88B4-3C4E2975CF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>